--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.275247666666667</v>
+        <v>8.961497999999999</v>
       </c>
       <c r="N2">
-        <v>24.825743</v>
+        <v>26.884494</v>
       </c>
       <c r="O2">
-        <v>0.1035475654300768</v>
+        <v>0.1368263930819497</v>
       </c>
       <c r="P2">
-        <v>0.1152196269592993</v>
+        <v>0.1434363050389826</v>
       </c>
       <c r="Q2">
-        <v>1255.570820532083</v>
+        <v>1297.47529819089</v>
       </c>
       <c r="R2">
-        <v>11300.13738478874</v>
+        <v>11677.27768371801</v>
       </c>
       <c r="S2">
-        <v>0.02796549958364157</v>
+        <v>0.03324944750661957</v>
       </c>
       <c r="T2">
-        <v>0.03206984496669728</v>
+        <v>0.03600433165484006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>142.063716</v>
       </c>
       <c r="O3">
-        <v>0.5925442766305059</v>
+        <v>0.7230214505096683</v>
       </c>
       <c r="P3">
-        <v>0.6593368972671567</v>
+        <v>0.7579497126911668</v>
       </c>
       <c r="Q3">
-        <v>7184.923185016327</v>
+        <v>6856.151441020459</v>
       </c>
       <c r="R3">
-        <v>64664.30866514694</v>
+        <v>61705.36296918413</v>
       </c>
       <c r="S3">
-        <v>0.1600307709077861</v>
+        <v>0.1756975626075503</v>
       </c>
       <c r="T3">
-        <v>0.1835176231185875</v>
+        <v>0.1902549903666779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>24.2875365</v>
+        <v>0.110461</v>
       </c>
       <c r="N4">
-        <v>48.575073</v>
+        <v>0.331383</v>
       </c>
       <c r="O4">
-        <v>0.3039081579394173</v>
+        <v>0.00168654617857698</v>
       </c>
       <c r="P4">
-        <v>0.225443475773544</v>
+        <v>0.00176802111554464</v>
       </c>
       <c r="Q4">
-        <v>3685.052503605782</v>
+        <v>15.992908653605</v>
       </c>
       <c r="R4">
-        <v>22110.31502163469</v>
+        <v>143.936177882445</v>
       </c>
       <c r="S4">
-        <v>0.08207767540473161</v>
+        <v>0.0004098385360381382</v>
       </c>
       <c r="T4">
-        <v>0.06274918178102476</v>
+        <v>0.0004437957224255688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.24887100000001</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>246.746613</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.146403824289839</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.150882936320401</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.275247666666667</v>
+        <v>9.0545855</v>
       </c>
       <c r="N5">
-        <v>24.825743</v>
+        <v>18.109171</v>
       </c>
       <c r="O5">
-        <v>0.1035475654300768</v>
+        <v>0.1382476763167411</v>
       </c>
       <c r="P5">
-        <v>0.1152196269592993</v>
+        <v>0.09661749912641458</v>
       </c>
       <c r="Q5">
-        <v>680.6297778287178</v>
+        <v>1310.952814095077</v>
       </c>
       <c r="R5">
-        <v>6125.66800045846</v>
+        <v>7865.716884570464</v>
       </c>
       <c r="S5">
-        <v>0.01515975957486557</v>
+        <v>0.03359482591821688</v>
       </c>
       <c r="T5">
-        <v>0.01738467563736031</v>
+        <v>0.02425221760462413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.24887100000001</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>246.746613</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.146403824289839</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.150882936320401</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>47.354572</v>
+        <v>0.01427366666666667</v>
       </c>
       <c r="N6">
-        <v>142.063716</v>
+        <v>0.042821</v>
       </c>
       <c r="O6">
-        <v>0.5925442766305059</v>
+        <v>0.0002179339130638713</v>
       </c>
       <c r="P6">
-        <v>0.6593368972671567</v>
+        <v>0.0002284620278914037</v>
       </c>
       <c r="Q6">
-        <v>3894.860083688212</v>
+        <v>2.066588634468333</v>
       </c>
       <c r="R6">
-        <v>35053.74075319391</v>
+        <v>18.599297710215</v>
       </c>
       <c r="S6">
-        <v>0.08675074815976234</v>
+        <v>5.295895067546952E-05</v>
       </c>
       <c r="T6">
-        <v>0.09948268708405117</v>
+        <v>5.734686640529321E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.2875365</v>
+        <v>8.961497999999999</v>
       </c>
       <c r="N7">
-        <v>48.575073</v>
+        <v>26.884494</v>
       </c>
       <c r="O7">
-        <v>0.3039081579394173</v>
+        <v>0.1368263930819497</v>
       </c>
       <c r="P7">
-        <v>0.225443475773544</v>
+        <v>0.1434363050389826</v>
       </c>
       <c r="Q7">
-        <v>1997.622456496292</v>
+        <v>737.0730929687578</v>
       </c>
       <c r="R7">
-        <v>11985.73473897775</v>
+        <v>6633.657836718821</v>
       </c>
       <c r="S7">
-        <v>0.04449331655521109</v>
+        <v>0.01888843136156634</v>
       </c>
       <c r="T7">
-        <v>0.0340155735989895</v>
+        <v>0.02045343300955975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>123.444321</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>370.332963</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.2197321429647646</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.2264546783208506</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.275247666666667</v>
+        <v>47.354572</v>
       </c>
       <c r="N8">
-        <v>24.825743</v>
+        <v>142.063716</v>
       </c>
       <c r="O8">
-        <v>0.1035475654300768</v>
+        <v>0.7230214505096683</v>
       </c>
       <c r="P8">
-        <v>0.1152196269592993</v>
+        <v>0.7579497126911668</v>
       </c>
       <c r="Q8">
-        <v>1021.532329318501</v>
+        <v>3894.860083688211</v>
       </c>
       <c r="R8">
-        <v>9193.79096386651</v>
+        <v>35053.74075319391</v>
       </c>
       <c r="S8">
-        <v>0.02275272845073495</v>
+        <v>0.09981072169835345</v>
       </c>
       <c r="T8">
-        <v>0.02609202355931652</v>
+        <v>0.1080805425720537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>123.444321</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>370.332963</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.2197321429647646</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.2264546783208506</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>47.354572</v>
+        <v>0.110461</v>
       </c>
       <c r="N9">
-        <v>142.063716</v>
+        <v>0.331383</v>
       </c>
       <c r="O9">
-        <v>0.5925442766305059</v>
+        <v>0.00168654617857698</v>
       </c>
       <c r="P9">
-        <v>0.6593368972671567</v>
+        <v>0.00176802111554464</v>
       </c>
       <c r="Q9">
-        <v>5845.652986785612</v>
+        <v>9.085292539530998</v>
       </c>
       <c r="R9">
-        <v>52610.87688107051</v>
+        <v>81.767632855779</v>
       </c>
       <c r="S9">
-        <v>0.1302010237055273</v>
+        <v>0.0002328221260139743</v>
       </c>
       <c r="T9">
-        <v>0.1493099249757017</v>
+        <v>0.0002521126114929647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.444321</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>370.332963</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.2197321429647646</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.2264546783208506</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2875365</v>
+        <v>9.0545855</v>
       </c>
       <c r="N10">
-        <v>48.575073</v>
+        <v>18.109171</v>
       </c>
       <c r="O10">
-        <v>0.3039081579394173</v>
+        <v>0.1382476763167411</v>
       </c>
       <c r="P10">
-        <v>0.225443475773544</v>
+        <v>0.09661749912641458</v>
       </c>
       <c r="Q10">
-        <v>2998.158452005217</v>
+        <v>744.7294347479705</v>
       </c>
       <c r="R10">
-        <v>17988.9507120313</v>
+        <v>4468.376608487823</v>
       </c>
       <c r="S10">
-        <v>0.0667783908085023</v>
+        <v>0.01908463481486955</v>
       </c>
       <c r="T10">
-        <v>0.05105272978583238</v>
+        <v>0.01377726193794692</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.0323125</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>100.064625</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.08905802352064279</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.06118845668531954</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>8.275247666666667</v>
+        <v>0.01427366666666667</v>
       </c>
       <c r="N11">
-        <v>24.825743</v>
+        <v>0.042821</v>
       </c>
       <c r="O11">
-        <v>0.1035475654300768</v>
+        <v>0.0002179339130638713</v>
       </c>
       <c r="P11">
-        <v>0.1152196269592993</v>
+        <v>0.0002284620278914037</v>
       </c>
       <c r="Q11">
-        <v>414.0297772735626</v>
+        <v>1.173992968363667</v>
       </c>
       <c r="R11">
-        <v>2484.178663641375</v>
+        <v>10.565936715273</v>
       </c>
       <c r="S11">
-        <v>0.009221741517577077</v>
+        <v>3.008505643935988E-05</v>
       </c>
       <c r="T11">
-        <v>0.007050111153497759</v>
+        <v>3.257775485387072E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.0323125</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>100.064625</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.08905802352064279</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.06118845668531954</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.354572</v>
+        <v>8.961497999999999</v>
       </c>
       <c r="N12">
-        <v>142.063716</v>
+        <v>26.884494</v>
       </c>
       <c r="O12">
-        <v>0.5925442766305059</v>
+        <v>0.1368263930819497</v>
       </c>
       <c r="P12">
-        <v>0.6593368972671567</v>
+        <v>0.1434363050389826</v>
       </c>
       <c r="Q12">
-        <v>2369.25874460775</v>
+        <v>1468.422910303986</v>
       </c>
       <c r="R12">
-        <v>14215.5524676465</v>
+        <v>13215.80619273587</v>
       </c>
       <c r="S12">
-        <v>0.05277082212518187</v>
+        <v>0.03763019653765053</v>
       </c>
       <c r="T12">
-        <v>0.0403438071794644</v>
+        <v>0.04074804780165595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.0323125</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>100.064625</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.08905802352064279</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.06118845668531954</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.2875365</v>
+        <v>47.354572</v>
       </c>
       <c r="N13">
-        <v>48.575073</v>
+        <v>142.063716</v>
       </c>
       <c r="O13">
-        <v>0.3039081579394173</v>
+        <v>0.7230214505096683</v>
       </c>
       <c r="P13">
-        <v>0.225443475773544</v>
+        <v>0.7579497126911668</v>
       </c>
       <c r="Q13">
-        <v>1215.161616023156</v>
+        <v>7759.477091044338</v>
       </c>
       <c r="R13">
-        <v>4860.646464092625</v>
+        <v>69835.29381939904</v>
       </c>
       <c r="S13">
-        <v>0.02706545987788385</v>
+        <v>0.1988464262689478</v>
       </c>
       <c r="T13">
-        <v>0.01379453835235738</v>
+        <v>0.2153218539448381</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.3429766666667</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H14">
-        <v>463.02893</v>
+        <v>491.577271</v>
       </c>
       <c r="I14">
-        <v>0.2747320633285943</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J14">
-        <v>0.2831372788071194</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>8.275247666666667</v>
+        <v>0.110461</v>
       </c>
       <c r="N14">
-        <v>24.825743</v>
+        <v>0.331383</v>
       </c>
       <c r="O14">
-        <v>0.1035475654300768</v>
+        <v>0.00168654617857698</v>
       </c>
       <c r="P14">
-        <v>0.1152196269592993</v>
+        <v>0.00176802111554464</v>
       </c>
       <c r="Q14">
-        <v>1277.226357527221</v>
+        <v>18.10003897731033</v>
       </c>
       <c r="R14">
-        <v>11495.03721774499</v>
+        <v>162.900350795793</v>
       </c>
       <c r="S14">
-        <v>0.02844783630325762</v>
+        <v>0.0004638364188381692</v>
       </c>
       <c r="T14">
-        <v>0.03262297164242741</v>
+        <v>0.0005022676017133205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,108 +1346,728 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.3429766666667</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>463.02893</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.2747320633285943</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.2831372788071194</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.354572</v>
+        <v>9.0545855</v>
       </c>
       <c r="N15">
-        <v>142.063716</v>
+        <v>18.109171</v>
       </c>
       <c r="O15">
-        <v>0.5925442766305059</v>
+        <v>0.1382476763167411</v>
       </c>
       <c r="P15">
-        <v>0.6593368972671567</v>
+        <v>0.09661749912641458</v>
       </c>
       <c r="Q15">
-        <v>7308.845601255985</v>
+        <v>1483.67614337539</v>
       </c>
       <c r="R15">
-        <v>65779.61041130387</v>
+        <v>8902.056860252342</v>
       </c>
       <c r="S15">
-        <v>0.1627909117322482</v>
+        <v>0.03802107995024501</v>
       </c>
       <c r="T15">
-        <v>0.186682854909352</v>
+        <v>0.02744754524881002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>163.8590903333333</v>
+      </c>
+      <c r="H16">
+        <v>491.577271</v>
+      </c>
+      <c r="I16">
+        <v>0.2750214756820535</v>
+      </c>
+      <c r="J16">
+        <v>0.284084617144743</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01427366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.042821</v>
+      </c>
+      <c r="O16">
+        <v>0.0002179339130638713</v>
+      </c>
+      <c r="P16">
+        <v>0.0002284620278914037</v>
+      </c>
+      <c r="Q16">
+        <v>2.338870035721222</v>
+      </c>
+      <c r="R16">
+        <v>21.049830321491</v>
+      </c>
+      <c r="S16">
+        <v>5.993650637199025E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.490254772564102E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H16">
-        <v>463.02893</v>
-      </c>
-      <c r="I16">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J16">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K16">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>24.2875365</v>
-      </c>
-      <c r="N16">
-        <v>48.575073</v>
-      </c>
-      <c r="O16">
-        <v>0.3039081579394173</v>
-      </c>
-      <c r="P16">
-        <v>0.225443475773544</v>
-      </c>
-      <c r="Q16">
-        <v>3748.610679310314</v>
-      </c>
-      <c r="R16">
-        <v>22491.66407586189</v>
-      </c>
-      <c r="S16">
-        <v>0.08349331529308843</v>
-      </c>
-      <c r="T16">
-        <v>0.06383145225534</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>57.0238095</v>
+      </c>
+      <c r="H17">
+        <v>114.047619</v>
+      </c>
+      <c r="I17">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J17">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.961497999999999</v>
+      </c>
+      <c r="N17">
+        <v>26.884494</v>
+      </c>
+      <c r="O17">
+        <v>0.1368263930819497</v>
+      </c>
+      <c r="P17">
+        <v>0.1434363050389826</v>
+      </c>
+      <c r="Q17">
+        <v>511.018754786631</v>
+      </c>
+      <c r="R17">
+        <v>3066.112528719786</v>
+      </c>
+      <c r="S17">
+        <v>0.01309550269347508</v>
+      </c>
+      <c r="T17">
+        <v>0.009453687354631668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>57.0238095</v>
+      </c>
+      <c r="H18">
+        <v>114.047619</v>
+      </c>
+      <c r="I18">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J18">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>47.354572</v>
+      </c>
+      <c r="N18">
+        <v>142.063716</v>
+      </c>
+      <c r="O18">
+        <v>0.7230214505096683</v>
+      </c>
+      <c r="P18">
+        <v>0.7579497126911668</v>
+      </c>
+      <c r="Q18">
+        <v>2700.338092682034</v>
+      </c>
+      <c r="R18">
+        <v>16202.0285560922</v>
+      </c>
+      <c r="S18">
+        <v>0.06919958305791728</v>
+      </c>
+      <c r="T18">
+        <v>0.04995541130516293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>57.0238095</v>
+      </c>
+      <c r="H19">
+        <v>114.047619</v>
+      </c>
+      <c r="I19">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J19">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.110461</v>
+      </c>
+      <c r="N19">
+        <v>0.331383</v>
+      </c>
+      <c r="O19">
+        <v>0.00168654617857698</v>
+      </c>
+      <c r="P19">
+        <v>0.00176802111554464</v>
+      </c>
+      <c r="Q19">
+        <v>6.298907021179499</v>
+      </c>
+      <c r="R19">
+        <v>37.793442127077</v>
+      </c>
+      <c r="S19">
+        <v>0.0001614174687115871</v>
+      </c>
+      <c r="T19">
+        <v>0.0001165278125241973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>57.0238095</v>
+      </c>
+      <c r="H20">
+        <v>114.047619</v>
+      </c>
+      <c r="I20">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J20">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.0545855</v>
+      </c>
+      <c r="N20">
+        <v>18.109171</v>
+      </c>
+      <c r="O20">
+        <v>0.1382476763167411</v>
+      </c>
+      <c r="P20">
+        <v>0.09661749912641458</v>
+      </c>
+      <c r="Q20">
+        <v>516.3269586534623</v>
+      </c>
+      <c r="R20">
+        <v>2065.307834613849</v>
+      </c>
+      <c r="S20">
+        <v>0.01323153213933099</v>
+      </c>
+      <c r="T20">
+        <v>0.006367924978820972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>57.0238095</v>
+      </c>
+      <c r="H21">
+        <v>114.047619</v>
+      </c>
+      <c r="I21">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J21">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01427366666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.042821</v>
+      </c>
+      <c r="O21">
+        <v>0.0002179339130638713</v>
+      </c>
+      <c r="P21">
+        <v>0.0002284620278914037</v>
+      </c>
+      <c r="Q21">
+        <v>0.8139388488664999</v>
+      </c>
+      <c r="R21">
+        <v>4.883633093198999</v>
+      </c>
+      <c r="S21">
+        <v>2.085821369140503E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.505761448263385E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H22">
+        <v>443.6689</v>
+      </c>
+      <c r="I22">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J22">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.961497999999999</v>
+      </c>
+      <c r="N22">
+        <v>26.884494</v>
+      </c>
+      <c r="O22">
+        <v>0.1368263930819497</v>
+      </c>
+      <c r="P22">
+        <v>0.1434363050389826</v>
+      </c>
+      <c r="Q22">
+        <v>1325.3126533374</v>
+      </c>
+      <c r="R22">
+        <v>11927.8138800366</v>
+      </c>
+      <c r="S22">
+        <v>0.03396281498263824</v>
+      </c>
+      <c r="T22">
+        <v>0.0367768052182952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H23">
+        <v>443.6689</v>
+      </c>
+      <c r="I23">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J23">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>47.354572</v>
+      </c>
+      <c r="N23">
+        <v>142.063716</v>
+      </c>
+      <c r="O23">
+        <v>0.7230214505096683</v>
+      </c>
+      <c r="P23">
+        <v>0.7579497126911668</v>
+      </c>
+      <c r="Q23">
+        <v>7003.250289736933</v>
+      </c>
+      <c r="R23">
+        <v>63029.2526076324</v>
+      </c>
+      <c r="S23">
+        <v>0.1794671568768995</v>
+      </c>
+      <c r="T23">
+        <v>0.1943369145024343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H24">
+        <v>443.6689</v>
+      </c>
+      <c r="I24">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J24">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.110461</v>
+      </c>
+      <c r="N24">
+        <v>0.331383</v>
+      </c>
+      <c r="O24">
+        <v>0.00168654617857698</v>
+      </c>
+      <c r="P24">
+        <v>0.00176802111554464</v>
+      </c>
+      <c r="Q24">
+        <v>16.33603678763333</v>
+      </c>
+      <c r="R24">
+        <v>147.0243310887</v>
+      </c>
+      <c r="S24">
+        <v>0.0004186316289751114</v>
+      </c>
+      <c r="T24">
+        <v>0.0004533173673885891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H25">
+        <v>443.6689</v>
+      </c>
+      <c r="I25">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J25">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.0545855</v>
+      </c>
+      <c r="N25">
+        <v>18.109171</v>
+      </c>
+      <c r="O25">
+        <v>0.1382476763167411</v>
+      </c>
+      <c r="P25">
+        <v>0.09661749912641458</v>
+      </c>
+      <c r="Q25">
+        <v>1339.079329580317</v>
+      </c>
+      <c r="R25">
+        <v>8034.4759774819</v>
+      </c>
+      <c r="S25">
+        <v>0.03431560349407867</v>
+      </c>
+      <c r="T25">
+        <v>0.02477254935621255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H26">
+        <v>443.6689</v>
+      </c>
+      <c r="I26">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J26">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01427366666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.042821</v>
+      </c>
+      <c r="O26">
+        <v>0.0002179339130638713</v>
+      </c>
+      <c r="P26">
+        <v>0.0002284620278914037</v>
+      </c>
+      <c r="Q26">
+        <v>2.110927329655556</v>
+      </c>
+      <c r="R26">
+        <v>18.9983459669</v>
+      </c>
+      <c r="S26">
+        <v>5.409518588564665E-05</v>
+      </c>
+      <c r="T26">
+        <v>5.857724442396494E-05</v>
       </c>
     </row>
   </sheetData>
